--- a/test_case/cash_payments/UI_UX.xlsx
+++ b/test_case/cash_payments/UI_UX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNT SQA\Project\ai-quizwhiz.zluck.com-pnt-b24\test_case\cash_payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A7EB56-218E-46A7-A8FD-67D4B4160E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A462E-92AF-4AB6-9EAF-E3AB734132B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>*****</t>
-  </si>
-  <si>
-    <t>Test Scenario: Feedback APP API(positive)</t>
   </si>
   <si>
     <t xml:space="preserve">1. needs to have the browser install 
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Visual feedback (color change, underline) is provided for all interactive elements.</t>
+  </si>
+  <si>
+    <t>Test Scenario: Feedback UI_UX (positive)</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1313,19 +1313,19 @@
     </row>
     <row r="4" spans="1:26" ht="118" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
@@ -1355,19 +1355,19 @@
     </row>
     <row r="5" spans="1:26" ht="167" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
@@ -1397,19 +1397,19 @@
     </row>
     <row r="6" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>7</v>
@@ -1439,19 +1439,19 @@
     </row>
     <row r="7" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>7</v>
